--- a/generated_output/temp/us-core-patient.xlsx
+++ b/generated_output/temp/us-core-patient.xlsx
@@ -181,7 +181,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -200,7 +200,7 @@
     <t>Patient.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -216,7 +216,7 @@
     <t>Patient.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -235,7 +235,7 @@
     <t>Patient.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -267,7 +267,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -293,7 +293,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -315,7 +315,7 @@
     <t>Patient.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -338,21 +338,21 @@
     <t>race</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-race]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/core/StructureDefinition/us-core-race}
 </t>
   </si>
   <si>
     <t>ethnicity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-ethnicity]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/core/StructureDefinition/us-core-ethnicity}
 </t>
   </si>
   <si>
     <t>birthsex</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-birthsex]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/core/StructureDefinition/us-core-birthsex}
 </t>
   </si>
   <si>
@@ -382,7 +382,7 @@
     <t>Patient.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -410,7 +410,7 @@
     <t>Patient.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -474,7 +474,7 @@
     <t>Patient.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -520,7 +520,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://www.acme.com/identifiers/patient"/&gt;</t>
+    <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -544,7 +544,7 @@
     <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="123456"/&gt;</t>
+    <t>123456</t>
   </si>
   <si>
     <t>Identifier.value</t>
@@ -559,7 +559,7 @@
     <t>Patient.identifier.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -581,7 +581,7 @@
     <t>Patient.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -606,7 +606,7 @@
     <t>Patient.active</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean {[]} {[]}
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
@@ -637,7 +637,7 @@
     <t>Patient.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {[]} {[]}
+    <t xml:space="preserve">HumanName
 </t>
   </si>
   <si>
@@ -836,7 +836,7 @@
     <t>Patient.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {[]} {[]}
+    <t xml:space="preserve">ContactPoint
 </t>
   </si>
   <si>
@@ -952,7 +952,7 @@
     <t>Patient.telecom.rank</t>
   </si>
   <si>
-    <t xml:space="preserve">positiveInt {[]} {[]}
+    <t xml:space="preserve">positiveInt
 </t>
   </si>
   <si>
@@ -1007,7 +1007,7 @@
     <t>Patient.birthDate</t>
   </si>
   <si>
-    <t xml:space="preserve">date {[]} {[]}
+    <t xml:space="preserve">date
 </t>
   </si>
   <si>
@@ -1038,8 +1038,8 @@
     <t>Patient.deceased[x]</t>
   </si>
   <si>
-    <t>boolean {[]} {[]}
-dateTime {[]} {[]}</t>
+    <t>boolean
+dateTime</t>
   </si>
   <si>
     <t>Indicates if the individual is deceased or not</t>
@@ -1063,7 +1063,7 @@
     <t>Patient.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {[]} {[]}
+    <t xml:space="preserve">Address
 </t>
   </si>
   <si>
@@ -1109,7 +1109,7 @@
     <t>Allows an appropriate address to be chosen from a list of many.</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="home"/&gt;</t>
+    <t>home</t>
   </si>
   <si>
     <t>The use of an address.</t>
@@ -1136,7 +1136,7 @@
     <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="both"/&gt;</t>
+    <t>both</t>
   </si>
   <si>
     <t>The type of an address (physical / postal).</t>
@@ -1163,7 +1163,7 @@
     <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="137 Nowhere Street, Erewhon 9132"/&gt;</t>
+    <t>137 Nowhere Street, Erewhon 9132</t>
   </si>
   <si>
     <t>Address.text</t>
@@ -1181,7 +1181,7 @@
     <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="137 Nowhere Street"/&gt;</t>
+    <t>137 Nowhere Street</t>
   </si>
   <si>
     <t>Address.line</t>
@@ -1206,7 +1206,7 @@
     <t>The name of the city, town, suburb, village or other community or delivery center.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Erewhon"/&gt;</t>
+    <t>Erewhon</t>
   </si>
   <si>
     <t>Address.city</t>
@@ -1234,7 +1234,7 @@
     <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Madison"/&gt;</t>
+    <t>Madison</t>
   </si>
   <si>
     <t>Address.district</t>
@@ -1287,7 +1287,7 @@
     <t>A postal code designating a region defined by the postal service.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="9132"/&gt;</t>
+    <t>9132</t>
   </si>
   <si>
     <t>Address.postalCode</t>
@@ -1374,8 +1374,8 @@
     <t>Patient.multipleBirth[x]</t>
   </si>
   <si>
-    <t>boolean {[]} {[]}
-integer {[]} {[]}</t>
+    <t>boolean
+integer</t>
   </si>
   <si>
     <t>Whether patient is part of a multiple birth</t>
@@ -1399,7 +1399,7 @@
     <t>Patient.photo</t>
   </si>
   <si>
-    <t xml:space="preserve">Attachment {[]} {[]}
+    <t xml:space="preserve">Attachment
 </t>
   </si>
   <si>
@@ -1427,7 +1427,7 @@
     <t>Patient.contact</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -1686,7 +1686,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization], CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/PractitionerRole]]}
+    <t xml:space="preserve">Reference(Organization|Practitioner|PractitionerRole)
 </t>
   </si>
   <si>
@@ -1757,7 +1757,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson]]}
+    <t xml:space="preserve">Reference(Patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -1838,67 +1838,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
